--- a/dist/document/dest/2020/10/doctors/177.xlsx
+++ b/dist/document/dest/2020/10/doctors/177.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>298</v>
       </c>
-      <c r="C2" s="1">
-        <v>1542150</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>48400</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>46000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>2033</v>
       </c>
-      <c r="C5" s="1">
-        <v>7013850</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>32</v>
       </c>
-      <c r="C6" s="1">
-        <v>239360</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>3732</v>
       </c>
-      <c r="C7" s="1">
-        <v>12875400</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>338000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>300</v>
       </c>
-      <c r="C9" s="1">
-        <v>2277000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>37700</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>116</v>
       </c>
-      <c r="C11" s="1">
-        <v>526640</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1">
-        <v>65550</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <v>286000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1830</v>
       </c>
-      <c r="C14" s="1">
-        <v>10522500</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>538</v>
       </c>
-      <c r="C15" s="1">
-        <v>9172900</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>30</v>
       </c>
-      <c r="C16" s="1">
-        <v>396000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>43</v>
       </c>
-      <c r="C17" s="1">
-        <v>463540</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>369</v>
       </c>
-      <c r="C18" s="1">
-        <v>5114340</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>327</v>
       </c>
-      <c r="C19" s="1">
-        <v>1015335</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>144</v>
       </c>
-      <c r="C20" s="1">
-        <v>480240</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>483</v>
       </c>
-      <c r="C21" s="1">
-        <v>2922150</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>5196</v>
       </c>
-      <c r="C22" s="1">
-        <v>54298200</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>508200</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>120</v>
       </c>
-      <c r="C24" s="1">
-        <v>1914000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>187</v>
       </c>
-      <c r="C25" s="1">
-        <v>903210</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>868</v>
       </c>
-      <c r="C26" s="1">
-        <v>998200</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>60</v>
       </c>
-      <c r="C27" s="1">
-        <v>294000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>20</v>
       </c>
-      <c r="C28" s="1">
-        <v>69000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>210</v>
       </c>
-      <c r="C29" s="1">
-        <v>1159200</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>60</v>
       </c>
-      <c r="C30" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>480</v>
       </c>
-      <c r="C31" s="1">
-        <v>4171200</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>350</v>
       </c>
-      <c r="C32" s="1">
-        <v>6160000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>84</v>
       </c>
-      <c r="C33" s="1">
-        <v>1663200</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>1018</v>
       </c>
-      <c r="C34" s="1">
-        <v>3629170</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>5422</v>
       </c>
-      <c r="C35" s="1">
-        <v>52484960</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>2371</v>
       </c>
-      <c r="C36" s="1">
-        <v>13360585</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>227</v>
       </c>
-      <c r="C37" s="1">
-        <v>1573110</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>326</v>
       </c>
-      <c r="C38" s="1">
-        <v>2438480</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>448</v>
       </c>
-      <c r="C39" s="1">
-        <v>8377600</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>248</v>
       </c>
-      <c r="C40" s="1">
-        <v>4010160</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>74</v>
       </c>
-      <c r="C41" s="1">
-        <v>357420</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
-        <v>770400</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>121</v>
       </c>
-      <c r="C43" s="1">
-        <v>678810</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>1348</v>
       </c>
-      <c r="C44" s="1">
-        <v>7440960</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>314</v>
       </c>
-      <c r="C45" s="1">
-        <v>2417800</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="1">
-        <v>866400</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="1">
-        <v>37200</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>3</v>
       </c>
-      <c r="C48" s="1">
-        <v>3000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>408</v>
       </c>
-      <c r="C49" s="1">
-        <v>1360680</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>72</v>
       </c>
-      <c r="C50" s="1">
-        <v>3009600</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>428</v>
       </c>
-      <c r="C51" s="1">
-        <v>3295600</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>1282</v>
       </c>
-      <c r="C52" s="1">
-        <v>1544810</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>172</v>
       </c>
-      <c r="C53" s="1">
-        <v>1589280</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>58</v>
       </c>
-      <c r="C54" s="1">
-        <v>313490</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>224</v>
       </c>
-      <c r="C55" s="1">
-        <v>1971200</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>90</v>
       </c>
-      <c r="C56" s="1">
-        <v>3465000</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>33</v>
       </c>
-      <c r="C57" s="1">
-        <v>3102000</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>18</v>
       </c>
-      <c r="C58" s="1">
-        <v>1980000</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>738</v>
       </c>
-      <c r="C59" s="1">
-        <v>11202840</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>45</v>
       </c>
-      <c r="C60" s="1">
-        <v>490050</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>88</v>
       </c>
-      <c r="C61" s="1">
-        <v>619080</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>88</v>
       </c>
-      <c r="C62" s="1">
-        <v>85800</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>4323</v>
       </c>
-      <c r="C63" s="1">
-        <v>37804635</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>2278</v>
       </c>
-      <c r="C64" s="1">
-        <v>41095120</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>220</v>
       </c>
-      <c r="C65" s="1">
-        <v>4114000</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>14</v>
       </c>
-      <c r="C66" s="1">
-        <v>354200</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>828</v>
       </c>
-      <c r="C67" s="1">
-        <v>6305220</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1131,7 +933,7 @@
         <v>41348</v>
       </c>
       <c r="C68" s="1">
-        <v>349821925</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/177.xlsx
+++ b/dist/document/dest/2020/10/doctors/177.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,23 +402,32 @@
         <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B2" s="1">
-        <v>298</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>155250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Albenca 400mg (Albendazole)</v>
+        <v>AT Calci Plus (Calci lactat pentahydrat 500mg/10ml)</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24200</v>
       </c>
     </row>
     <row r="5">
@@ -426,519 +435,2182 @@
         <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>2033</v>
+        <v>914</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3153300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>32</v>
+        <v>266</v>
+      </c>
+      <c r="C6" s="1">
+        <v>917700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>3732</v>
+        <v>126</v>
+      </c>
+      <c r="C7" s="1">
+        <v>434700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Baifem K (Baicalin,vogonin)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>210</v>
+      </c>
+      <c r="C8" s="1">
+        <v>724500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1014300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Betadine Anti 10% 30ml</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>186</v>
+      </c>
+      <c r="C10" s="1">
+        <v>641700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
+        <v>Alphadeka DK (Alpha chymotrypsin 8.4mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>116</v>
+        <v>196</v>
+      </c>
+      <c r="C11" s="1">
+        <v>676200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>299200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>392</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1352400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B14" s="1">
-        <v>1830</v>
+        <v>272</v>
+      </c>
+      <c r="C14" s="1">
+        <v>938400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B15" s="1">
-        <v>538</v>
+        <v>322</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1110900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B16" s="1">
-        <v>30</v>
+        <v>168</v>
+      </c>
+      <c r="C16" s="1">
+        <v>579600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B17" s="1">
-        <v>43</v>
+        <v>1684</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5809800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Dasbrain (DHA, EPA, Tuna)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B18" s="1">
-        <v>369</v>
+        <v>152</v>
+      </c>
+      <c r="C18" s="1">
+        <v>524400</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B19" s="1">
-        <v>327</v>
+        <v>196</v>
+      </c>
+      <c r="C19" s="1">
+        <v>676200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B20" s="1">
-        <v>144</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="1">
+        <v>667920</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Enterobella (Bacillus clausii)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B21" s="1">
-        <v>483</v>
+        <v>90</v>
+      </c>
+      <c r="C21" s="1">
+        <v>683100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B22" s="1">
-        <v>5196</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>455400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Esomaxcare (Esomeprazole 40mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>30</v>
+        <v>224</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1016960</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>65550</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B25" s="1">
-        <v>187</v>
+        <v>88</v>
+      </c>
+      <c r="C25" s="1">
+        <v>506000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B26" s="1">
-        <v>868</v>
+        <v>116</v>
+      </c>
+      <c r="C26" s="1">
+        <v>667000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Forlax (Macrogol 4000)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B27" s="1">
-        <v>60</v>
+        <v>148</v>
+      </c>
+      <c r="C27" s="1">
+        <v>851000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B28" s="1">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Glucozinc S ( Kẽm Gluconat)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B29" s="1">
-        <v>210</v>
+        <v>1112</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6394000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B30" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>172500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Grafort (Dioctahedral smectite 3g)</v>
+        <v>Casmorin (Amino acids-vitamins)</v>
       </c>
       <c r="B31" s="1">
-        <v>480</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>350</v>
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>238700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B33" s="1">
         <v>84</v>
       </c>
+      <c r="C33" s="1">
+        <v>1432200</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>1018</v>
+        <v>182</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3103100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>5422</v>
+        <v>28</v>
+      </c>
+      <c r="C35" s="1">
+        <v>477400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>2371</v>
+        <v>28</v>
+      </c>
+      <c r="C36" s="1">
+        <v>477400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Lertazin (Levocetirizine 5mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B37" s="1">
-        <v>227</v>
+        <v>215</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2979900</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B38" s="1">
-        <v>326</v>
+        <v>45</v>
+      </c>
+      <c r="C38" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B39" s="1">
-        <v>448</v>
+        <v>28</v>
+      </c>
+      <c r="C39" s="1">
+        <v>388080</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
       </c>
       <c r="B40" s="1">
-        <v>248</v>
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>415800</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>74</v>
+        <v>99</v>
+      </c>
+      <c r="C41" s="1">
+        <v>307395</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B42" s="1">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="C42" s="1">
+        <v>242190</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="C43" s="1">
+        <v>90045</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Mezondin (Thymomodulin 80mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>1348</v>
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <v>49680</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>314</v>
+        <v>172</v>
+      </c>
+      <c r="C45" s="1">
+        <v>573620</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Nazoster (Mometasone furoate monohydrate)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B46" s="1">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C46" s="1">
+        <v>338800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Nizoral Cream 10g (Ketoconazole)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B47" s="1">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1016400</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B48" s="1">
-        <v>3</v>
+        <v>374</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2262700</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B49" s="1">
-        <v>408</v>
+        <v>56</v>
+      </c>
+      <c r="C49" s="1">
+        <v>338800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Pilavos (Thiabendazol 500mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B50" s="1">
-        <v>72</v>
+        <v>424</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4430800</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B51" s="1">
-        <v>428</v>
+        <v>212</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2215400</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B52" s="1">
-        <v>1282</v>
+        <v>416</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4347200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B53" s="1">
-        <v>172</v>
+        <v>448</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4681600</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B54" s="1">
-        <v>58</v>
+        <v>2401</v>
+      </c>
+      <c r="C54" s="1">
+        <v>25090450</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B55" s="1">
-        <v>224</v>
+        <v>38</v>
+      </c>
+      <c r="C55" s="1">
+        <v>397100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B56" s="1">
-        <v>90</v>
+        <v>196</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2048200</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Stromectin (Ivermectin 6mg)</v>
+        <v>Esomaxcare (Esomeprazole 40mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="C57" s="1">
+        <v>745360</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="C58" s="1">
+        <v>33810</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B59" s="1">
-        <v>738</v>
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>155250</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
       </c>
       <c r="B60" s="1">
-        <v>45</v>
+        <v>28</v>
+      </c>
+      <c r="C60" s="1">
+        <v>144900</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Tesafu (Rupatadin 10mg)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B61" s="1">
-        <v>88</v>
+        <v>196</v>
+      </c>
+      <c r="C61" s="1">
+        <v>225400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Tetracyclin 500mg</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B62" s="1">
-        <v>88</v>
+        <v>124</v>
+      </c>
+      <c r="C62" s="1">
+        <v>142600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B63" s="1">
-        <v>4323</v>
+        <v>154</v>
+      </c>
+      <c r="C63" s="1">
+        <v>177100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Vexinir (Cefdinir 300mg)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B64" s="1">
-        <v>2278</v>
+        <v>168</v>
+      </c>
+      <c r="C64" s="1">
+        <v>193200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B65" s="1">
-        <v>220</v>
+        <v>674</v>
+      </c>
+      <c r="C65" s="1">
+        <v>775100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Virclath (Clarithromycin 500mg)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B66" s="1">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="C66" s="1">
+        <v>128800</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v xml:space="preserve">Fleet Enema 133ml (bơm) </v>
       </c>
       <c r="B67" s="1">
-        <v>828</v>
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45</v>
+      </c>
+      <c r="C69" s="1">
+        <v>220500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>82</v>
+      </c>
+      <c r="C70" s="1">
+        <v>401800</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1">
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Glucozinc S ( Kẽm Gluconat)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>60</v>
+      </c>
+      <c r="C73" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Glucozinc S ( Kẽm Gluconat)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Glucozinc S ( Kẽm Gluconat)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>60</v>
+      </c>
+      <c r="C75" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Glucozinc S ( Kẽm Gluconat)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Grafort (Dioctahedral smectite 3g)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1">
+        <v>121660</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Grafort (Dioctahedral smectite 3g)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>56</v>
+      </c>
+      <c r="C78" s="1">
+        <v>486640</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Grafort (Dioctahedral smectite 3g)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>126</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1094940</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>42</v>
+      </c>
+      <c r="C80" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>84</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1478400</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>56</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1108800</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1663200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>80</v>
+      </c>
+      <c r="C87" s="1">
+        <v>285200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>824</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2937560</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>60</v>
+      </c>
+      <c r="C89" s="1">
+        <v>213900</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>168</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1626240</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>748</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7240640</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>284</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2749120</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>456</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4414080</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3338</v>
+      </c>
+      <c r="C94" s="1">
+        <v>32311840</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>432</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4181760</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>382</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3697760</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>292</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1645420</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>440</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2479400</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>200</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1127000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>104</v>
+      </c>
+      <c r="C100" s="1">
+        <v>586040</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1829</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10306415</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>116</v>
+      </c>
+      <c r="C102" s="1">
+        <v>653660</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>208</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1172080</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>58</v>
+      </c>
+      <c r="C104" s="1">
+        <v>401940</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>58</v>
+      </c>
+      <c r="C105" s="1">
+        <v>401940</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>90</v>
+      </c>
+      <c r="C106" s="1">
+        <v>623700</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>30</v>
+      </c>
+      <c r="C107" s="1">
+        <v>207900</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>56</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1047200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>28</v>
+      </c>
+      <c r="C110" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>350</v>
+      </c>
+      <c r="C111" s="1">
+        <v>6545000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>28</v>
+      </c>
+      <c r="C112" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>28</v>
+      </c>
+      <c r="C113" s="1">
+        <v>452760</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>84</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1358280</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>154</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2490180</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>56</v>
+      </c>
+      <c r="C116" s="1">
+        <v>905520</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Mecefix-B.E (Cefixim 250mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>28</v>
+      </c>
+      <c r="C117" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>30</v>
+      </c>
+      <c r="C118" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>58</v>
+      </c>
+      <c r="C119" s="1">
+        <v>280140</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1">
+        <v>128400</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>6</v>
+      </c>
+      <c r="C122" s="1">
+        <v>770400</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>256800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Meseca Fort (Azelastine, Fluticasone)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1">
+        <v>385200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>28</v>
+      </c>
+      <c r="C125" s="1">
+        <v>157080</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1">
+        <v>78540</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>96</v>
+      </c>
+      <c r="C127" s="1">
+        <v>529920</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>228</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1258560</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>700</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3864000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>60</v>
+      </c>
+      <c r="C130" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>252</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1391040</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>48</v>
+      </c>
+      <c r="C132" s="1">
+        <v>369600</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>28</v>
+      </c>
+      <c r="C133" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>28</v>
+      </c>
+      <c r="C134" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>247</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1901900</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>28</v>
+      </c>
+      <c r="C136" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>28</v>
+      </c>
+      <c r="C137" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1">
+        <v>288800</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>288800</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Nazoster (Mometasone furoate monohydrate)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1">
+        <v>866400</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>28</v>
+      </c>
+      <c r="C141" s="1">
+        <v>213080</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Originko (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1">
+        <v>271040</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>15</v>
+      </c>
+      <c r="C143" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43</v>
+      </c>
+      <c r="C144" s="1">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>6</v>
+      </c>
+      <c r="C145" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v xml:space="preserve">Prednisone </v>
+      </c>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>60</v>
+      </c>
+      <c r="C147" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>60</v>
+      </c>
+      <c r="C148" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>28</v>
+      </c>
+      <c r="C149" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>240</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1848000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>88</v>
+      </c>
+      <c r="C151" s="1">
+        <v>677600</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>168</v>
+      </c>
+      <c r="C152" s="1">
+        <v>202440</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>88</v>
+      </c>
+      <c r="C153" s="1">
+        <v>106040</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>130</v>
+      </c>
+      <c r="C154" s="1">
+        <v>156650</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>353</v>
+      </c>
+      <c r="C155" s="1">
+        <v>425365</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>168</v>
+      </c>
+      <c r="C156" s="1">
+        <v>202440</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>30</v>
+      </c>
+      <c r="C157" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>28</v>
+      </c>
+      <c r="C158" s="1">
+        <v>258720</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B159" s="1">
+        <v>28</v>
+      </c>
+      <c r="C159" s="1">
+        <v>246400</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B160" s="1">
+        <v>84</v>
+      </c>
+      <c r="C160" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B161" s="1">
+        <v>56</v>
+      </c>
+      <c r="C161" s="1">
+        <v>492800</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Somexwell (Esomeprazole 20mg</v>
+      </c>
+      <c r="B162" s="1">
+        <v>88</v>
+      </c>
+      <c r="C162" s="1">
+        <v>774400</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>90</v>
+      </c>
+      <c r="C163" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3</v>
+      </c>
+      <c r="C164" s="1">
+        <v>282000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2</v>
+      </c>
+      <c r="C165" s="1">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>17</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1598000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>6</v>
+      </c>
+      <c r="C168" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+      <c r="C169" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>42</v>
+      </c>
+      <c r="C170" s="1">
+        <v>637560</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>140</v>
+      </c>
+      <c r="C171" s="1">
+        <v>2125200</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>56</v>
+      </c>
+      <c r="C172" s="1">
+        <v>850080</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>322</v>
+      </c>
+      <c r="C173" s="1">
+        <v>4887960</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>56</v>
+      </c>
+      <c r="C174" s="1">
+        <v>850080</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>104</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1578720</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Theralene (Alimemazine 5mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B177" s="1">
+        <v>112</v>
+      </c>
+      <c r="C177" s="1">
+        <v>979440</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B178" s="1">
+        <v>294</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2571030</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B179" s="1">
+        <v>276</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2413620</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B180" s="1">
+        <v>322</v>
+      </c>
+      <c r="C180" s="1">
+        <v>2815890</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B181" s="1">
+        <v>2068</v>
+      </c>
+      <c r="C181" s="1">
+        <v>18084660</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B182" s="1">
+        <v>252</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2203740</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B183" s="1">
+        <v>38</v>
+      </c>
+      <c r="C183" s="1">
+        <v>332310</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>196</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3535840</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>132</v>
+      </c>
+      <c r="C185" s="1">
+        <v>2381280</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C186" s="1">
+        <v>18040000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>152</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2742080</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>168</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3030720</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>154</v>
+      </c>
+      <c r="C189" s="1">
+        <v>2778160</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Vexinir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>208</v>
+      </c>
+      <c r="C190" s="1">
+        <v>3752320</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>77</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1439900</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>105</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1963500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>62</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1159400</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>56</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1047200</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>98</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1832600</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>14</v>
+      </c>
+      <c r="C196" s="1">
+        <v>354200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>42</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1062600</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Virclath (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1">
+        <v>177100</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>42</v>
+      </c>
+      <c r="C199" s="1">
+        <v>319830</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>116</v>
+      </c>
+      <c r="C200" s="1">
+        <v>883340</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>60</v>
+      </c>
+      <c r="C201" s="1">
+        <v>456900</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B68" s="1">
-        <v>41348</v>
-      </c>
-      <c r="C68" s="1">
-        <v>NaN</v>
+      <c r="B202" s="1">
+        <v>37592</v>
+      </c>
+      <c r="C202" s="1">
+        <v>312380060</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C68"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C202"/>
   </ignoredErrors>
 </worksheet>
 </file>